--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,11 +15,11 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$62</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$247</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$62</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$247</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">indicateur!$B$1:$D$247</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$229</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="619">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -639,30 +639,6 @@
     <t xml:space="preserve">Résidences principales équipées d’un chauffe-eau solaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution du niveau de vie en €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ménages selon le décile de niveau de vie metro et le zonage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pauvreté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicateurs sur la pauvreté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution du niveau de vie selon le type de ménage</t>
-  </si>
-  <si>
     <t xml:space="preserve">indicateur</t>
   </si>
   <si>
@@ -675,6 +651,9 @@
     <t xml:space="preserve">typeIndicateurDiffusable</t>
   </si>
   <si>
+    <t xml:space="preserve">calculQualite</t>
+  </si>
+  <si>
     <t xml:space="preserve">a_population</t>
   </si>
   <si>
@@ -1671,166 +1650,79 @@
     <t xml:space="preserve">Résidence principale sans chauffe-eau solaire</t>
   </si>
   <si>
-    <t xml:space="preserve">nivviem</t>
+    <t xml:space="preserve">typeIndicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelTypeIndicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectifs pondérés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part_np</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part non pondérée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part (en%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv60.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 60 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv50.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq.pauv40.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individus sous le seuil à 40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv60.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 60 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv50.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 50 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_pauv40.ind.metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de pauvreté à 40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d’individus</t>
   </si>
   <si>
     <t xml:space="preserve">avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_ .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décile 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pauvrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_pauv60.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_femme seule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_homme seul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_famille monoparentale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_couple sans enfant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_couple avec enfant(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivviem_menage complexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeIndicateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelTypeIndicateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectifs pondérés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part_np</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part non pondérée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part (en%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq.ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq.pauv60.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individus sous le seuil à 60 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq.pauv50.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individus sous le seuil à 50 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq.pauv40.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individus sous le seuil à 40 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de pauvreté à 60 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_pauv50.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de pauvreté à 50 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_pauv40.ind.metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de pauvreté à 40 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre d’individus</t>
   </si>
   <si>
     <t xml:space="preserve">Moyenne</t>
@@ -2034,10 +1926,10 @@
     <t xml:space="preserve">Intervalle de confiance à 95 %</t>
   </si>
   <si>
-    <t xml:space="preserve">val_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeur diffusée dans le tableau de bord</t>
+    <t xml:space="preserve">val.qualite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur issue de la qualité</t>
   </si>
   <si>
     <t xml:space="preserve">idPredefine</t>
@@ -2358,10 +2250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,8 +2266,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -4312,124 +4204,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E62"/>
+  <autoFilter ref="A1:D58"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4446,10 +4226,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMD248"/>
+  <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A230" activeCellId="0" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4459,25 +4239,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="7" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,13 +4272,16 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,13 +4292,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,13 +4312,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,13 +4332,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,13 +4352,16 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,13 +4372,16 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,13 +4392,16 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,13 +4412,16 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,13 +4432,16 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,13 +4452,16 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,13 +4472,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,13 +4492,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,13 +4512,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,13 +4532,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,13 +4552,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,13 +4572,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,13 +4592,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,13 +4612,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,10 +4635,13 @@
         <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,13 +4652,16 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,13 +4672,16 @@
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,13 +4692,16 @@
         <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,13 +4712,16 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,13 +4732,16 @@
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,13 +4752,16 @@
         <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,13 +4772,16 @@
         <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,13 +4792,16 @@
         <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,13 +4812,16 @@
         <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,13 +4832,16 @@
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,13 +4852,16 @@
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,13 +4872,16 @@
         <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,13 +4892,16 @@
         <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,13 +4912,16 @@
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,13 +4932,16 @@
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,13 +4952,16 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,13 +4972,16 @@
         <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,13 +4992,16 @@
         <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,13 +5012,16 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,13 +5032,16 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,13 +5052,16 @@
         <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,13 +5072,16 @@
         <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,13 +5092,16 @@
         <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,13 +5112,16 @@
         <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,13 +5132,16 @@
         <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,13 +5152,16 @@
         <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,13 +5172,16 @@
         <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,13 +5192,16 @@
         <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,13 +5212,16 @@
         <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,13 +5232,16 @@
         <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,13 +5252,16 @@
         <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,13 +5272,16 @@
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,13 +5292,16 @@
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,13 +5312,16 @@
         <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,13 +5332,16 @@
         <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,13 +5352,16 @@
         <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,13 +5372,16 @@
         <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,13 +5392,16 @@
         <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,13 +5412,16 @@
         <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,13 +5432,16 @@
         <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,13 +5452,16 @@
         <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,13 +5472,16 @@
         <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,13 +5492,16 @@
         <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,13 +5512,16 @@
         <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,13 +5532,16 @@
         <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,13 +5552,16 @@
         <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,13 +5572,16 @@
         <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,13 +5592,16 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,10 +5615,13 @@
         <v>78</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,13 +5632,16 @@
         <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,13 +5652,16 @@
         <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,13 +5672,16 @@
         <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,13 +5692,16 @@
         <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5718,10 @@
         <v>86</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,10 +5735,13 @@
         <v>96</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,13 +5752,16 @@
         <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,13 +5772,16 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,13 +5792,16 @@
         <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,13 +5812,16 @@
         <v>79</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,13 +5832,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,13 +5852,16 @@
         <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,13 +5872,16 @@
         <v>82</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,13 +5892,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,13 +5912,16 @@
         <v>87</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,13 +5932,16 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,13 +5952,16 @@
         <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,13 +5972,16 @@
         <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,13 +5992,16 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,13 +6012,16 @@
         <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,13 +6032,16 @@
         <v>90</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,13 +6052,16 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,13 +6072,16 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,13 +6092,16 @@
         <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,13 +6112,16 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,13 +6132,16 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,13 +6152,16 @@
         <v>93</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,13 +6172,16 @@
         <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,13 +6192,16 @@
         <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,13 +6212,16 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,13 +6232,16 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,13 +6252,16 @@
         <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,13 +6272,16 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,13 +6292,16 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,13 +6312,16 @@
         <v>101</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,13 +6332,16 @@
         <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,13 +6352,16 @@
         <v>101</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,10 +6375,13 @@
         <v>111</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,13 +6392,16 @@
         <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6307,13 +6412,16 @@
         <v>106</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,13 +6432,16 @@
         <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,13 +6452,16 @@
         <v>106</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,13 +6472,16 @@
         <v>106</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,13 +6492,16 @@
         <v>106</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,10 +6515,13 @@
         <v>137</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,13 +6532,16 @@
         <v>108</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,13 +6552,16 @@
         <v>108</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,13 +6572,16 @@
         <v>113</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,13 +6592,16 @@
         <v>113</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,13 +6612,16 @@
         <v>113</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6494,13 +6632,16 @@
         <v>113</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,13 +6652,16 @@
         <v>113</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,13 +6672,16 @@
         <v>116</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,13 +6692,16 @@
         <v>116</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,13 +6712,16 @@
         <v>116</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,13 +6732,16 @@
         <v>121</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,13 +6752,16 @@
         <v>121</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,13 +6772,16 @@
         <v>121</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,13 +6792,16 @@
         <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,13 +6812,16 @@
         <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,13 +6832,16 @@
         <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,13 +6852,16 @@
         <v>131</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,13 +6872,16 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,13 +6892,16 @@
         <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,13 +6912,16 @@
         <v>134</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,13 +6932,16 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,13 +6952,16 @@
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,13 +6972,16 @@
         <v>134</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,10 +6995,13 @@
         <v>62</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,13 +7012,16 @@
         <v>61</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,13 +7032,16 @@
         <v>61</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,13 +7052,16 @@
         <v>61</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,13 +7072,16 @@
         <v>143</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,13 +7092,16 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,13 +7112,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,13 +7132,16 @@
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,13 +7152,16 @@
         <v>143</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,13 +7172,16 @@
         <v>143</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,13 +7192,16 @@
         <v>145</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,13 +7212,16 @@
         <v>145</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,13 +7232,16 @@
         <v>145</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,13 +7252,16 @@
         <v>145</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,13 +7272,16 @@
         <v>148</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,13 +7292,16 @@
         <v>148</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,13 +7312,16 @@
         <v>148</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,13 +7332,16 @@
         <v>148</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7106,13 +7352,16 @@
         <v>148</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,13 +7372,16 @@
         <v>150</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7140,13 +7392,16 @@
         <v>150</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,13 +7412,16 @@
         <v>150</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,13 +7432,16 @@
         <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,13 +7452,16 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,13 +7472,16 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,13 +7492,16 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,13 +7512,16 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,13 +7532,16 @@
         <v>156</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,13 +7552,16 @@
         <v>156</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,13 +7572,16 @@
         <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,13 +7592,16 @@
         <v>156</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,13 +7612,16 @@
         <v>156</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,13 +7632,16 @@
         <v>156</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,15 +7652,17 @@
         <v>159</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F171" s="0"/>
+        <v>211</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G171" s="0"/>
       <c r="H171" s="0"/>
       <c r="I171" s="0"/>
@@ -8391,15 +8684,17 @@
         <v>159</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F172" s="0"/>
+        <v>211</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G172" s="0"/>
       <c r="H172" s="0"/>
       <c r="I172" s="0"/>
@@ -9421,13 +9716,16 @@
         <v>162</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,13 +9736,16 @@
         <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,13 +9756,16 @@
         <v>162</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,13 +9776,16 @@
         <v>165</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,13 +9796,16 @@
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,13 +9816,16 @@
         <v>165</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,13 +9836,16 @@
         <v>165</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9540,13 +9856,16 @@
         <v>165</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9557,13 +9876,16 @@
         <v>167</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,13 +9896,16 @@
         <v>167</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9591,13 +9916,16 @@
         <v>167</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,13 +9936,16 @@
         <v>167</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9625,13 +9956,16 @@
         <v>167</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9642,13 +9976,16 @@
         <v>169</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9659,13 +9996,16 @@
         <v>169</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9676,13 +10016,16 @@
         <v>169</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,13 +10036,16 @@
         <v>169</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,13 +10056,16 @@
         <v>171</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9727,13 +10076,16 @@
         <v>171</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,13 +10096,16 @@
         <v>171</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,13 +10116,16 @@
         <v>171</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,13 +10136,16 @@
         <v>171</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9795,13 +10156,16 @@
         <v>171</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,13 +10176,16 @@
         <v>171</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,13 +10196,16 @@
         <v>173</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9846,13 +10216,16 @@
         <v>173</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,13 +10236,16 @@
         <v>173</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,13 +10256,16 @@
         <v>175</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9897,13 +10276,16 @@
         <v>175</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,13 +10296,16 @@
         <v>175</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,13 +10316,16 @@
         <v>175</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9948,13 +10336,16 @@
         <v>178</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,13 +10356,16 @@
         <v>178</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9982,13 +10376,16 @@
         <v>178</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9999,13 +10396,16 @@
         <v>181</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10016,13 +10416,16 @@
         <v>181</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10033,13 +10436,16 @@
         <v>181</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10050,13 +10456,16 @@
         <v>184</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,13 +10476,16 @@
         <v>184</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10084,13 +10496,16 @@
         <v>184</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,13 +10516,16 @@
         <v>187</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,13 +10536,16 @@
         <v>187</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10135,13 +10556,16 @@
         <v>187</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,13 +10576,16 @@
         <v>190</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,13 +10596,16 @@
         <v>190</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,13 +10616,16 @@
         <v>190</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,13 +10636,16 @@
         <v>190</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10220,13 +10656,16 @@
         <v>190</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10237,13 +10676,16 @@
         <v>193</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10254,13 +10696,16 @@
         <v>193</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10271,13 +10716,16 @@
         <v>193</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10288,13 +10736,16 @@
         <v>196</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10305,13 +10756,16 @@
         <v>196</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,13 +10776,16 @@
         <v>196</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,13 +10796,16 @@
         <v>199</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,13 +10816,16 @@
         <v>199</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,283 +10836,39 @@
         <v>199</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
+        <v>211</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D247"/>
+  <autoFilter ref="B1:C229"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10668,8 +10887,8 @@
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10680,306 +10899,306 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11013,10 +11232,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11024,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11032,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11040,7 +11259,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11048,7 +11267,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$229</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="621">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -1930,6 +1930,12 @@
   </si>
   <si>
     <t xml:space="preserve">Valeur issue de la qualité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur.diffusable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur diffusable</t>
   </si>
   <si>
     <t xml:space="preserve">idPredefine</t>
@@ -2252,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2266,7 +2272,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
@@ -4209,7 +4215,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D58"/>
+  <autoFilter ref="A1:E58"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4228,8 +4234,8 @@
   </sheetPr>
   <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A230" activeCellId="0" sqref="A230"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10868,7 +10874,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:C229"/>
+  <autoFilter ref="A1:D229"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10885,10 +10891,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11201,7 +11207,14 @@
         <v>612</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11232,10 +11245,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11243,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11251,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11259,7 +11272,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11267,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$229</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="625">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -1287,25 +1287,37 @@
     <t xml:space="preserve">a_scolarise2a5</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeune scolarisé</t>
+    <t xml:space="preserve">Jeune scolarisé de 2 à 5 ans</t>
   </si>
   <si>
     <t xml:space="preserve">b_n_scolarise2a5</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeune non scolarisé</t>
+    <t xml:space="preserve">Jeune non scolarisé de 2 à 5 ans</t>
   </si>
   <si>
     <t xml:space="preserve">a_scolarise6a15</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune scolarisé de 6 à 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">b_n_scolarise6a15</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune non scolarisé de 6 à 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">a_scolarise16a24</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune scolarisé de 16 à 24 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">b_n_scolarise16a24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeune non scolarisé de 16 à 24 ans</t>
   </si>
   <si>
     <t xml:space="preserve">Résidence principale</t>
@@ -2259,7 +2271,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4215,7 +4227,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E58"/>
+  <autoFilter ref="A1:D58"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4234,8 +4246,8 @@
   </sheetPr>
   <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I109" activeCellId="0" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6801,7 +6813,7 @@
         <v>421</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>211</v>
@@ -6818,10 +6830,10 @@
         <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>211</v>
@@ -6858,10 +6870,10 @@
         <v>131</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>211</v>
@@ -6878,10 +6890,10 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>211</v>
@@ -7001,7 +7013,7 @@
         <v>62</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>211</v>
@@ -7018,10 +7030,10 @@
         <v>61</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>211</v>
@@ -7038,10 +7050,10 @@
         <v>61</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>211</v>
@@ -7058,10 +7070,10 @@
         <v>61</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>211</v>
@@ -7078,10 +7090,10 @@
         <v>143</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>211</v>
@@ -7098,10 +7110,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>211</v>
@@ -7118,10 +7130,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>211</v>
@@ -7138,10 +7150,10 @@
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>211</v>
@@ -7158,10 +7170,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>211</v>
@@ -7178,10 +7190,10 @@
         <v>143</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>211</v>
@@ -7198,10 +7210,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>211</v>
@@ -7218,10 +7230,10 @@
         <v>145</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>211</v>
@@ -7238,10 +7250,10 @@
         <v>145</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>211</v>
@@ -7258,10 +7270,10 @@
         <v>145</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>211</v>
@@ -7278,10 +7290,10 @@
         <v>148</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>211</v>
@@ -7298,10 +7310,10 @@
         <v>148</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>211</v>
@@ -7318,10 +7330,10 @@
         <v>148</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>211</v>
@@ -7338,10 +7350,10 @@
         <v>148</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>211</v>
@@ -7358,10 +7370,10 @@
         <v>148</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>211</v>
@@ -7378,10 +7390,10 @@
         <v>150</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>211</v>
@@ -7398,10 +7410,10 @@
         <v>150</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>211</v>
@@ -7418,10 +7430,10 @@
         <v>150</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>211</v>
@@ -7438,7 +7450,7 @@
         <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>288</v>
@@ -7458,10 +7470,10 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>211</v>
@@ -7478,10 +7490,10 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>211</v>
@@ -7498,10 +7510,10 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>211</v>
@@ -7518,10 +7530,10 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>211</v>
@@ -7538,10 +7550,10 @@
         <v>156</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>211</v>
@@ -7558,10 +7570,10 @@
         <v>156</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>211</v>
@@ -7578,10 +7590,10 @@
         <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>211</v>
@@ -7598,10 +7610,10 @@
         <v>156</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>211</v>
@@ -7618,10 +7630,10 @@
         <v>156</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>211</v>
@@ -7638,10 +7650,10 @@
         <v>156</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>211</v>
@@ -7658,10 +7670,10 @@
         <v>159</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>211</v>
@@ -8690,10 +8702,10 @@
         <v>159</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>211</v>
@@ -9722,10 +9734,10 @@
         <v>162</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>211</v>
@@ -9742,10 +9754,10 @@
         <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>211</v>
@@ -9782,10 +9794,10 @@
         <v>165</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>211</v>
@@ -9802,10 +9814,10 @@
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>211</v>
@@ -9822,10 +9834,10 @@
         <v>165</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>211</v>
@@ -9842,10 +9854,10 @@
         <v>165</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>211</v>
@@ -9882,10 +9894,10 @@
         <v>167</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>211</v>
@@ -9902,10 +9914,10 @@
         <v>167</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>211</v>
@@ -9922,10 +9934,10 @@
         <v>167</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>211</v>
@@ -9942,10 +9954,10 @@
         <v>167</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>211</v>
@@ -9962,10 +9974,10 @@
         <v>167</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>211</v>
@@ -9982,10 +9994,10 @@
         <v>169</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>211</v>
@@ -10002,10 +10014,10 @@
         <v>169</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>211</v>
@@ -10022,10 +10034,10 @@
         <v>169</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>211</v>
@@ -10062,10 +10074,10 @@
         <v>171</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>211</v>
@@ -10082,10 +10094,10 @@
         <v>171</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>211</v>
@@ -10102,10 +10114,10 @@
         <v>171</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>211</v>
@@ -10122,10 +10134,10 @@
         <v>171</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>211</v>
@@ -10142,10 +10154,10 @@
         <v>171</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>211</v>
@@ -10162,10 +10174,10 @@
         <v>171</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>211</v>
@@ -10202,10 +10214,10 @@
         <v>173</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>211</v>
@@ -10222,10 +10234,10 @@
         <v>173</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>211</v>
@@ -10262,10 +10274,10 @@
         <v>175</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>211</v>
@@ -10282,10 +10294,10 @@
         <v>175</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>211</v>
@@ -10302,10 +10314,10 @@
         <v>175</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>211</v>
@@ -10342,10 +10354,10 @@
         <v>178</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>211</v>
@@ -10362,10 +10374,10 @@
         <v>178</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>211</v>
@@ -10402,10 +10414,10 @@
         <v>181</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>211</v>
@@ -10422,10 +10434,10 @@
         <v>181</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>211</v>
@@ -10462,10 +10474,10 @@
         <v>184</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>211</v>
@@ -10482,10 +10494,10 @@
         <v>184</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>211</v>
@@ -10522,10 +10534,10 @@
         <v>187</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>211</v>
@@ -10542,10 +10554,10 @@
         <v>187</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>211</v>
@@ -10582,10 +10594,10 @@
         <v>190</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>211</v>
@@ -10602,10 +10614,10 @@
         <v>190</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>211</v>
@@ -10622,10 +10634,10 @@
         <v>190</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>211</v>
@@ -10642,10 +10654,10 @@
         <v>190</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>211</v>
@@ -10682,10 +10694,10 @@
         <v>193</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>211</v>
@@ -10702,10 +10714,10 @@
         <v>193</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>211</v>
@@ -10742,10 +10754,10 @@
         <v>196</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>211</v>
@@ -10762,10 +10774,10 @@
         <v>196</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>211</v>
@@ -10802,10 +10814,10 @@
         <v>199</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>211</v>
@@ -10822,10 +10834,10 @@
         <v>199</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>211</v>
@@ -10874,7 +10886,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D229"/>
+  <autoFilter ref="B1:C229"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10905,18 +10917,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10924,15 +10936,15 @@
         <v>208</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10940,279 +10952,279 @@
         <v>211</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11245,10 +11257,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11256,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11272,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,7 +11292,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$58</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$229</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$229</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="625">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -1287,25 +1287,37 @@
     <t xml:space="preserve">a_scolarise2a5</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeune scolarisé</t>
+    <t xml:space="preserve">Jeune scolarisé de 2 à 5 ans</t>
   </si>
   <si>
     <t xml:space="preserve">b_n_scolarise2a5</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeune non scolarisé</t>
+    <t xml:space="preserve">Jeune non scolarisé de 2 à 5 ans</t>
   </si>
   <si>
     <t xml:space="preserve">a_scolarise6a15</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune scolarisé de 6 à 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">b_n_scolarise6a15</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune non scolarisé de 6 à 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">a_scolarise16a24</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeune scolarisé de 16 à 24 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">b_n_scolarise16a24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeune non scolarisé de 16 à 24 ans</t>
   </si>
   <si>
     <t xml:space="preserve">Résidence principale</t>
@@ -4215,7 +4227,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E58"/>
+  <autoFilter ref="A1:D58"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4234,8 +4246,8 @@
   </sheetPr>
   <dimension ref="A1:AMD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6801,7 +6813,7 @@
         <v>421</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>211</v>
@@ -6818,10 +6830,10 @@
         <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>211</v>
@@ -6858,10 +6870,10 @@
         <v>131</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>211</v>
@@ -6878,10 +6890,10 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>211</v>
@@ -7001,7 +7013,7 @@
         <v>62</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>211</v>
@@ -7018,10 +7030,10 @@
         <v>61</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>211</v>
@@ -7038,10 +7050,10 @@
         <v>61</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>211</v>
@@ -7058,10 +7070,10 @@
         <v>61</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>211</v>
@@ -7078,10 +7090,10 @@
         <v>143</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>211</v>
@@ -7098,10 +7110,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>211</v>
@@ -7118,10 +7130,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>211</v>
@@ -7138,10 +7150,10 @@
         <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>211</v>
@@ -7158,10 +7170,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>211</v>
@@ -7178,10 +7190,10 @@
         <v>143</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>211</v>
@@ -7198,10 +7210,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>211</v>
@@ -7218,10 +7230,10 @@
         <v>145</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>211</v>
@@ -7238,10 +7250,10 @@
         <v>145</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>211</v>
@@ -7258,10 +7270,10 @@
         <v>145</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>211</v>
@@ -7278,10 +7290,10 @@
         <v>148</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>211</v>
@@ -7298,10 +7310,10 @@
         <v>148</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>211</v>
@@ -7318,10 +7330,10 @@
         <v>148</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>211</v>
@@ -7338,10 +7350,10 @@
         <v>148</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>211</v>
@@ -7358,10 +7370,10 @@
         <v>148</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>211</v>
@@ -7378,10 +7390,10 @@
         <v>150</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>211</v>
@@ -7398,10 +7410,10 @@
         <v>150</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>211</v>
@@ -7418,10 +7430,10 @@
         <v>150</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>211</v>
@@ -7438,7 +7450,7 @@
         <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>288</v>
@@ -7458,10 +7470,10 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>211</v>
@@ -7478,10 +7490,10 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>211</v>
@@ -7498,10 +7510,10 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>211</v>
@@ -7518,10 +7530,10 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>211</v>
@@ -7538,10 +7550,10 @@
         <v>156</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>211</v>
@@ -7558,10 +7570,10 @@
         <v>156</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>211</v>
@@ -7578,10 +7590,10 @@
         <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>211</v>
@@ -7598,10 +7610,10 @@
         <v>156</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>211</v>
@@ -7618,10 +7630,10 @@
         <v>156</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>211</v>
@@ -7638,10 +7650,10 @@
         <v>156</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>211</v>
@@ -7658,10 +7670,10 @@
         <v>159</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>211</v>
@@ -8690,10 +8702,10 @@
         <v>159</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>211</v>
@@ -9722,10 +9734,10 @@
         <v>162</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>211</v>
@@ -9742,10 +9754,10 @@
         <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>211</v>
@@ -9782,10 +9794,10 @@
         <v>165</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>211</v>
@@ -9802,10 +9814,10 @@
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>211</v>
@@ -9822,10 +9834,10 @@
         <v>165</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>211</v>
@@ -9842,10 +9854,10 @@
         <v>165</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>211</v>
@@ -9882,10 +9894,10 @@
         <v>167</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>211</v>
@@ -9902,10 +9914,10 @@
         <v>167</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>211</v>
@@ -9922,10 +9934,10 @@
         <v>167</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>211</v>
@@ -9942,10 +9954,10 @@
         <v>167</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>211</v>
@@ -9962,10 +9974,10 @@
         <v>167</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>211</v>
@@ -9982,10 +9994,10 @@
         <v>169</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>211</v>
@@ -10002,10 +10014,10 @@
         <v>169</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>211</v>
@@ -10022,10 +10034,10 @@
         <v>169</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>211</v>
@@ -10062,10 +10074,10 @@
         <v>171</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>211</v>
@@ -10082,10 +10094,10 @@
         <v>171</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>211</v>
@@ -10102,10 +10114,10 @@
         <v>171</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>211</v>
@@ -10122,10 +10134,10 @@
         <v>171</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>211</v>
@@ -10142,10 +10154,10 @@
         <v>171</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>211</v>
@@ -10162,10 +10174,10 @@
         <v>171</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>211</v>
@@ -10202,10 +10214,10 @@
         <v>173</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>211</v>
@@ -10222,10 +10234,10 @@
         <v>173</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>211</v>
@@ -10262,10 +10274,10 @@
         <v>175</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>211</v>
@@ -10282,10 +10294,10 @@
         <v>175</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>211</v>
@@ -10302,10 +10314,10 @@
         <v>175</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>211</v>
@@ -10342,10 +10354,10 @@
         <v>178</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>211</v>
@@ -10362,10 +10374,10 @@
         <v>178</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>211</v>
@@ -10402,10 +10414,10 @@
         <v>181</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>211</v>
@@ -10422,10 +10434,10 @@
         <v>181</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>211</v>
@@ -10462,10 +10474,10 @@
         <v>184</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>211</v>
@@ -10482,10 +10494,10 @@
         <v>184</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>211</v>
@@ -10522,10 +10534,10 @@
         <v>187</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>211</v>
@@ -10542,10 +10554,10 @@
         <v>187</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>211</v>
@@ -10582,10 +10594,10 @@
         <v>190</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>211</v>
@@ -10602,10 +10614,10 @@
         <v>190</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>211</v>
@@ -10622,10 +10634,10 @@
         <v>190</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>211</v>
@@ -10642,10 +10654,10 @@
         <v>190</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>211</v>
@@ -10682,10 +10694,10 @@
         <v>193</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>211</v>
@@ -10702,10 +10714,10 @@
         <v>193</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>211</v>
@@ -10742,10 +10754,10 @@
         <v>196</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>211</v>
@@ -10762,10 +10774,10 @@
         <v>196</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>211</v>
@@ -10802,10 +10814,10 @@
         <v>199</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>211</v>
@@ -10822,10 +10834,10 @@
         <v>199</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>211</v>
@@ -10874,7 +10886,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D229"/>
+  <autoFilter ref="B1:C229"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10905,18 +10917,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10924,15 +10936,15 @@
         <v>208</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10940,279 +10952,279 @@
         <v>211</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11245,10 +11257,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11256,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11272,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,7 +11292,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="666">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -678,6 +678,9 @@
     <t xml:space="preserve">labelIndicateur</t>
   </si>
   <si>
+    <t xml:space="preserve">labelIndicateur2</t>
+  </si>
+  <si>
     <t xml:space="preserve">typeIndicateurDiffusable</t>
   </si>
   <si>
@@ -711,42 +714,63 @@
     <t xml:space="preserve">a_moins15</t>
   </si>
   <si>
+    <t xml:space="preserve">Moins de 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes de moins de 15 ans</t>
   </si>
   <si>
     <t xml:space="preserve">b_de15a29</t>
   </si>
   <si>
+    <t xml:space="preserve">De 15 à 29 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes âgées entre 15 et 29 ans</t>
   </si>
   <si>
     <t xml:space="preserve">c_de30a39</t>
   </si>
   <si>
+    <t xml:space="preserve">De 30 à 39 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes âgées entre 30 et 39 ans</t>
   </si>
   <si>
     <t xml:space="preserve">d_de40a49</t>
   </si>
   <si>
+    <t xml:space="preserve">De 40 à 49 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes âgées entre 40 et 49 ans</t>
   </si>
   <si>
     <t xml:space="preserve">e_de50a59</t>
   </si>
   <si>
+    <t xml:space="preserve">De 50 à 59 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes âgées entre 50 et 59 ans</t>
   </si>
   <si>
     <t xml:space="preserve">f_de60a74</t>
   </si>
   <si>
+    <t xml:space="preserve">De 60 à 74 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personnes âgées entre 60 et 74 ans</t>
   </si>
   <si>
     <t xml:space="preserve">g_75plus</t>
   </si>
   <si>
+    <t xml:space="preserve">Plus de 75 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personne âgée de 75 ans et plus</t>
   </si>
   <si>
@@ -1074,7 +1098,7 @@
     <t xml:space="preserve">Personnes inactives</t>
   </si>
   <si>
-    <t xml:space="preserve">Chômeurs au sens du recensement</t>
+    <t xml:space="preserve">Chômeurs (RP)</t>
   </si>
   <si>
     <t xml:space="preserve">c_retraite</t>
@@ -1158,18 +1182,27 @@
     <t xml:space="preserve">b_techEmploye</t>
   </si>
   <si>
+    <t xml:space="preserve">Employé ou ouvrier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ouvrier, Technicien, Employé ou agent de catégorie C et D de la fonction publique</t>
   </si>
   <si>
     <t xml:space="preserve">c_professionInter</t>
   </si>
   <si>
+    <t xml:space="preserve">Profession intermédiaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agent de maîtrise, Technicien spécialisé, Agent de catégorie B de la fonction publique</t>
   </si>
   <si>
     <t xml:space="preserve">d_cadreEmplo</t>
   </si>
   <si>
+    <t xml:space="preserve">Cadre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingénier, Agent de catégorie A de la fonction publique, Indépendant ou Employeur</t>
   </si>
   <si>
@@ -1254,21 +1287,36 @@
     <t xml:space="preserve">a_moins2</t>
   </si>
   <si>
+    <t xml:space="preserve">Mois de 2 ans </t>
+  </si>
+  <si>
     <t xml:space="preserve">Individus âgés de mois de 2 ans </t>
   </si>
   <si>
     <t xml:space="preserve">b_de2a5</t>
   </si>
   <si>
+    <t xml:space="preserve">De 2 à 5 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">c_de6a15</t>
   </si>
   <si>
+    <t xml:space="preserve">De 6 à 15 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">d_de16a24</t>
   </si>
   <si>
+    <t xml:space="preserve">De 16 à 24 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_25plus</t>
   </si>
   <si>
+    <t xml:space="preserve">Plus de 25 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Individus âgés de 25 ans et plus</t>
   </si>
   <si>
@@ -1287,6 +1335,9 @@
     <t xml:space="preserve">Aucun diplôme ou au mieux BEPC, Brevet des collèges, DNB</t>
   </si>
   <si>
+    <t xml:space="preserve">Aucun diplôme</t>
+  </si>
+  <si>
     <t xml:space="preserve">b_capBep</t>
   </si>
   <si>
@@ -1296,18 +1347,27 @@
     <t xml:space="preserve">c_bac</t>
   </si>
   <si>
+    <t xml:space="preserve">Bac</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baccalauréat (général, technologique, professionnel)</t>
   </si>
   <si>
     <t xml:space="preserve">d_bacSup</t>
   </si>
   <si>
+    <t xml:space="preserve">Post-Bac</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diplôme d’études supérieures</t>
   </si>
   <si>
     <t xml:space="preserve">e_persM14</t>
   </si>
   <si>
+    <t xml:space="preserve">Moins de 14 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personne de moins de 14 ans</t>
   </si>
   <si>
@@ -1425,24 +1485,36 @@
     <t xml:space="preserve">a_av46</t>
   </si>
   <si>
+    <t xml:space="preserve">Avant 1946</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement construit avant 1946</t>
   </si>
   <si>
     <t xml:space="preserve">b_de56a90</t>
   </si>
   <si>
+    <t xml:space="preserve">De 1946 à 1990</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement construit de 1946 à 1990</t>
   </si>
   <si>
     <t xml:space="preserve">c_de91a05</t>
   </si>
   <si>
+    <t xml:space="preserve">De 1991 à 2005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement construit de 1991 à 2005</t>
   </si>
   <si>
     <t xml:space="preserve">d_ap05</t>
   </si>
   <si>
+    <t xml:space="preserve">Après 2005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement construit après 2005</t>
   </si>
   <si>
@@ -1479,16 +1551,25 @@
     <t xml:space="preserve">a_moins40</t>
   </si>
   <si>
+    <t xml:space="preserve">Moins de 40 m²</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement de moins de 40 m2</t>
   </si>
   <si>
     <t xml:space="preserve">b_de40a100</t>
   </si>
   <si>
+    <t xml:space="preserve">De 40 à 100 m²</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logement de 40 à moins de 100 m2</t>
   </si>
   <si>
     <t xml:space="preserve">c_plus100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus de 100 m²</t>
   </si>
   <si>
     <t xml:space="preserve">Logement de 100 m2 ou plus</t>
@@ -2217,7 +2298,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D191:D193 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,8 +2393,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="D191:D193 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4382,10 +4463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMD1048576"/>
+  <dimension ref="A1:AME234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D191" activeCellId="0" sqref="D191:D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4394,10 +4475,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="7" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,6 +4500,9 @@
       <c r="F1" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -4428,15 +4512,15 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,15 +4532,15 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4468,15 +4552,15 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,15 +4572,15 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,15 +4592,18 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,15 +4615,18 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,15 +4638,18 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,15 +4661,18 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,15 +4684,18 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,15 +4707,18 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,15 +4730,18 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,15 +4753,15 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,15 +4773,15 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,15 +4793,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4708,15 +4813,15 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4728,15 +4833,15 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4748,15 +4853,15 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4768,15 +4873,15 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,15 +4893,15 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4811,12 +4916,12 @@
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,15 +4933,15 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,15 +4953,15 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,15 +4973,15 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,15 +4993,15 @@
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,15 +5013,15 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,15 +5033,15 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,15 +5053,15 @@
         <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,15 +5073,15 @@
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,15 +5093,15 @@
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,15 +5113,15 @@
         <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,15 +5133,15 @@
         <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,15 +5153,15 @@
         <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,15 +5173,15 @@
         <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,15 +5193,15 @@
         <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,15 +5213,15 @@
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,15 +5233,15 @@
         <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,15 +5253,15 @@
         <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,15 +5273,15 @@
         <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,15 +5293,15 @@
         <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,15 +5313,15 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,15 +5333,15 @@
         <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5248,15 +5353,15 @@
         <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,15 +5373,15 @@
         <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,15 +5393,16 @@
         <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,15 +5414,16 @@
         <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,15 +5435,15 @@
         <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,15 +5455,15 @@
         <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5368,15 +5475,15 @@
         <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,15 +5495,15 @@
         <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,15 +5515,16 @@
         <v>67</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,15 +5536,16 @@
         <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,15 +5557,16 @@
         <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,15 +5578,15 @@
         <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,15 +5598,15 @@
         <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F55" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5508,15 +5618,18 @@
         <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F56" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,15 +5641,18 @@
         <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,15 +5664,18 @@
         <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,15 +5687,18 @@
         <v>69</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,15 +5710,18 @@
         <v>69</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,15 +5733,18 @@
         <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,15 +5756,18 @@
         <v>69</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,15 +5779,18 @@
         <v>69</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F63" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5668,15 +5802,15 @@
         <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G64" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,15 +5822,15 @@
         <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,15 +5842,15 @@
         <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5728,15 +5862,15 @@
         <v>75</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5748,15 +5882,15 @@
         <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,15 +5902,15 @@
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5791,12 +5925,12 @@
         <v>82</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,15 +5942,15 @@
         <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5831,12 +5965,12 @@
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G72" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,15 +5982,15 @@
         <v>80</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,15 +6002,15 @@
         <v>80</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F74" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5893,10 +6027,10 @@
       <c r="D75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5911,12 +6045,12 @@
         <v>104</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G76" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,15 +6062,15 @@
         <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="0" t="n">
+        <v>357</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G77" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,15 +6082,16 @@
         <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F78" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5968,15 +6103,15 @@
         <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,15 +6123,15 @@
         <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,15 +6143,15 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6028,15 +6163,15 @@
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F82" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,12 +6186,12 @@
         <v>104</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F83" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,15 +6203,15 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,15 +6223,15 @@
         <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F85" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6108,15 +6243,15 @@
         <v>90</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F86" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,15 +6263,15 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F87" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6148,15 +6283,15 @@
         <v>95</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,15 +6303,15 @@
         <v>95</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F89" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G89" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,15 +6323,15 @@
         <v>95</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G90" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,15 +6343,15 @@
         <v>95</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F91" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6228,15 +6363,18 @@
         <v>98</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F92" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G92" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6248,15 +6386,18 @@
         <v>98</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F93" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,15 +6409,18 @@
         <v>98</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F94" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6288,15 +6432,18 @@
         <v>98</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F95" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G95" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6308,15 +6455,18 @@
         <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F96" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6328,15 +6478,15 @@
         <v>101</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G97" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,15 +6498,15 @@
         <v>101</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F98" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G98" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6368,15 +6518,15 @@
         <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F99" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G99" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6388,15 +6538,15 @@
         <v>101</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F100" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G100" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6408,15 +6558,15 @@
         <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6428,15 +6578,15 @@
         <v>106</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F102" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G102" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6448,15 +6598,15 @@
         <v>106</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F103" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,15 +6618,15 @@
         <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F104" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6488,15 +6638,15 @@
         <v>109</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F105" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G105" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6508,15 +6658,15 @@
         <v>109</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F106" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6528,15 +6678,15 @@
         <v>109</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F107" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,15 +6698,15 @@
         <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G108" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,15 +6718,15 @@
         <v>109</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F109" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G109" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6588,15 +6738,15 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F110" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6611,12 +6761,12 @@
         <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F111" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G111" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,15 +6778,15 @@
         <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F112" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,15 +6798,18 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F113" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G113" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,15 +6821,18 @@
         <v>114</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G114" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,15 +6844,18 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6708,15 +6867,18 @@
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G116" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,15 +6890,18 @@
         <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F117" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G117" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6751,12 +6916,12 @@
         <v>145</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F118" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G118" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,15 +6933,15 @@
         <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F119" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G119" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6788,15 +6953,15 @@
         <v>116</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F120" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6808,15 +6973,18 @@
         <v>121</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G121" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6828,15 +6996,18 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F122" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,15 +7019,18 @@
         <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F123" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G123" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6868,15 +7042,18 @@
         <v>121</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F124" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G124" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,15 +7065,18 @@
         <v>121</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F125" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G125" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,15 +7088,15 @@
         <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F126" s="0" t="n">
+        <v>447</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G126" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,15 +7108,15 @@
         <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F127" s="0" t="n">
+        <v>449</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G127" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6948,15 +7128,15 @@
         <v>124</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F128" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6968,15 +7148,15 @@
         <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G129" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6988,15 +7168,15 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F130" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7008,15 +7188,15 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F131" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7028,15 +7208,15 @@
         <v>134</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,15 +7228,15 @@
         <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F133" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G133" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,15 +7248,15 @@
         <v>134</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F134" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7088,15 +7268,15 @@
         <v>139</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G135" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,15 +7288,15 @@
         <v>139</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F136" s="0" t="n">
+        <v>461</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G136" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7128,15 +7308,15 @@
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F137" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7148,15 +7328,15 @@
         <v>142</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F138" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G138" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,15 +7348,15 @@
         <v>142</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F139" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G139" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,15 +7368,15 @@
         <v>142</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F140" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G140" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7208,15 +7388,15 @@
         <v>142</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F141" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7228,15 +7408,15 @@
         <v>147</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F142" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G142" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7251,12 +7431,12 @@
         <v>66</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F143" s="0" t="n">
+        <v>464</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G143" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,15 +7448,15 @@
         <v>65</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F144" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G144" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7288,15 +7468,15 @@
         <v>65</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F145" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G145" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,15 +7488,15 @@
         <v>65</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F146" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G146" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,15 +7508,15 @@
         <v>153</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F147" s="0" t="n">
+        <v>472</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G147" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7348,15 +7528,15 @@
         <v>153</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F148" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G148" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7368,15 +7548,15 @@
         <v>153</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F149" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G149" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7388,15 +7568,15 @@
         <v>153</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F150" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G150" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7408,15 +7588,16 @@
         <v>153</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F151" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G151" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7428,15 +7609,15 @@
         <v>153</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F152" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G152" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,15 +7629,18 @@
         <v>155</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F153" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G153" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,15 +7652,18 @@
         <v>155</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F154" s="0" t="n">
+        <v>488</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,15 +7675,18 @@
         <v>155</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F155" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G155" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7508,15 +7698,18 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F156" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G156" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7528,15 +7721,16 @@
         <v>158</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F157" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,15 +7742,15 @@
         <v>158</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F158" s="0" t="n">
+        <v>498</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7568,15 +7762,15 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F159" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G159" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,15 +7782,15 @@
         <v>158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F160" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,15 +7802,15 @@
         <v>158</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F161" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G161" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,15 +7822,18 @@
         <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F162" s="0" t="n">
+        <v>507</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G162" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7648,15 +7845,18 @@
         <v>160</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F163" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7668,15 +7868,18 @@
         <v>160</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F164" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G164" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7688,15 +7891,15 @@
         <v>163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F165" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G165" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7708,15 +7911,15 @@
         <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F166" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G166" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,15 +7931,15 @@
         <v>163</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F167" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,15 +7951,15 @@
         <v>163</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F168" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G168" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7768,15 +7971,15 @@
         <v>163</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F169" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G169" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7788,15 +7991,15 @@
         <v>166</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F170" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G170" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7808,15 +8011,15 @@
         <v>166</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F171" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G171" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7828,15 +8031,15 @@
         <v>166</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F172" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G172" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7848,15 +8051,15 @@
         <v>166</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F173" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G173" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,15 +8071,15 @@
         <v>166</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F174" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G174" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,15 +8091,15 @@
         <v>166</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F175" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G175" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7908,18 +8111,17 @@
         <v>169</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F176" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" s="0"/>
+        <v>536</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H176" s="0"/>
       <c r="I176" s="0"/>
       <c r="J176" s="0"/>
@@ -8931,6 +9133,7 @@
       <c r="AMB176" s="0"/>
       <c r="AMC176" s="0"/>
       <c r="AMD176" s="0"/>
+      <c r="AME176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -8940,18 +9143,17 @@
         <v>169</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F177" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" s="0"/>
+        <v>538</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H177" s="0"/>
       <c r="I177" s="0"/>
       <c r="J177" s="0"/>
@@ -9963,6 +10165,7 @@
       <c r="AMB177" s="0"/>
       <c r="AMC177" s="0"/>
       <c r="AMD177" s="0"/>
+      <c r="AME177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
@@ -9972,15 +10175,15 @@
         <v>172</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F178" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G178" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9992,15 +10195,15 @@
         <v>172</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F179" s="0" t="n">
+        <v>542</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G179" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10012,15 +10215,15 @@
         <v>172</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F180" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G180" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10032,15 +10235,15 @@
         <v>175</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F181" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G181" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10052,15 +10255,15 @@
         <v>175</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F182" s="0" t="n">
+        <v>488</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G182" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10072,15 +10275,15 @@
         <v>175</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F183" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G183" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10092,15 +10295,15 @@
         <v>175</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F184" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G184" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10112,15 +10315,15 @@
         <v>175</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F185" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10132,15 +10335,16 @@
         <v>177</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F186" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G186" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10152,15 +10356,15 @@
         <v>177</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F187" s="0" t="n">
+        <v>498</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G187" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10172,15 +10376,15 @@
         <v>177</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F188" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G188" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10192,15 +10396,15 @@
         <v>177</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F189" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G189" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10212,15 +10416,15 @@
         <v>177</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F190" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G190" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10232,15 +10436,18 @@
         <v>179</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F191" s="0" t="n">
+        <v>507</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G191" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10252,15 +10459,18 @@
         <v>179</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F192" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G192" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10272,15 +10482,18 @@
         <v>179</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F193" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G193" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10292,15 +10505,15 @@
         <v>179</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F194" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G194" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10312,15 +10525,15 @@
         <v>181</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F195" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G195" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10332,15 +10545,15 @@
         <v>181</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F196" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G196" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10352,15 +10565,15 @@
         <v>181</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F197" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G197" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10372,15 +10585,15 @@
         <v>181</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F198" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G198" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10392,15 +10605,15 @@
         <v>181</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F199" s="0" t="n">
+        <v>532</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G199" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10412,15 +10625,15 @@
         <v>181</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F200" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G200" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10432,15 +10645,15 @@
         <v>181</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F201" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G201" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10452,15 +10665,15 @@
         <v>183</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F202" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G202" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10472,15 +10685,15 @@
         <v>183</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F203" s="0" t="n">
+        <v>538</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G203" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10492,15 +10705,15 @@
         <v>183</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F204" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G204" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10512,15 +10725,15 @@
         <v>185</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F205" s="0" t="n">
+        <v>544</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G205" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10532,15 +10745,15 @@
         <v>185</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F206" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G206" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10552,15 +10765,15 @@
         <v>185</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F207" s="0" t="n">
+        <v>548</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G207" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10572,15 +10785,15 @@
         <v>185</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F208" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10592,15 +10805,15 @@
         <v>188</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F209" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G209" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10612,15 +10825,15 @@
         <v>188</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F210" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G210" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10632,15 +10845,15 @@
         <v>188</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F211" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10652,15 +10865,15 @@
         <v>191</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F212" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G212" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10672,15 +10885,15 @@
         <v>191</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F213" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G213" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10692,15 +10905,15 @@
         <v>191</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F214" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10712,15 +10925,15 @@
         <v>194</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F215" s="0" t="n">
+        <v>558</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G215" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10732,15 +10945,15 @@
         <v>194</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F216" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G216" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10752,15 +10965,15 @@
         <v>194</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F217" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G217" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10772,15 +10985,15 @@
         <v>197</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F218" s="0" t="n">
+        <v>562</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G218" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10792,15 +11005,15 @@
         <v>197</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F219" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G219" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10812,15 +11025,15 @@
         <v>197</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F220" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10832,15 +11045,15 @@
         <v>200</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F221" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G221" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10852,15 +11065,15 @@
         <v>200</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F222" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G222" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10872,15 +11085,15 @@
         <v>200</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F223" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G223" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10892,15 +11105,15 @@
         <v>200</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F224" s="0" t="n">
+        <v>572</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G224" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10912,15 +11125,15 @@
         <v>200</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F225" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10932,15 +11145,15 @@
         <v>203</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F226" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G226" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10952,15 +11165,15 @@
         <v>203</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F227" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G227" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10972,15 +11185,15 @@
         <v>203</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F228" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10992,15 +11205,15 @@
         <v>206</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F229" s="0" t="n">
+        <v>578</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G229" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11012,15 +11225,15 @@
         <v>206</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F230" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G230" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11032,15 +11245,15 @@
         <v>206</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F231" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11052,15 +11265,15 @@
         <v>209</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F232" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G232" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11072,15 +11285,15 @@
         <v>209</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F233" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G233" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11092,32 +11305,18 @@
         <v>209</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F234" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G234" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:D234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11139,7 +11338,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="D191:D193 A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11150,234 +11349,234 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11385,79 +11584,79 @@
         <v>25</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11480,7 +11679,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
+      <selection pane="topLeft" activeCell="Y8" activeCellId="1" sqref="D191:D193 Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11490,10 +11689,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,7 +11700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,7 +11708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11517,7 +11716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11525,7 +11724,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -1332,10 +1332,10 @@
     <t xml:space="preserve">a_aucunDipl</t>
   </si>
   <si>
+    <t xml:space="preserve">Aucun diplôme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aucun diplôme ou au mieux BEPC, Brevet des collèges, DNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucun diplôme</t>
   </si>
   <si>
     <t xml:space="preserve">b_capBep</t>
@@ -2298,7 +2298,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D191:D193 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2394,7 +2394,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="D191:D193 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E61"/>
+  <autoFilter ref="A1:D61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4465,8 +4465,8 @@
   </sheetPr>
   <dimension ref="A1:AME234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D191" activeCellId="0" sqref="D191:D193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D121" activeCellId="0" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11318,7 +11318,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D234"/>
+  <autoFilter ref="B1:C234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11338,7 +11338,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="D191:D193 A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11679,7 +11679,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y8" activeCellId="1" sqref="D191:D193 Y8"/>
+      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,20 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="categorie" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="indicateur" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="type indicateur" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="zone predefinie" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="zonePreType" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1008">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -2089,6 +2090,1032 @@
   </si>
   <si>
     <t xml:space="preserve">Zonage utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone.pred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_ancien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Abymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anse-Bertrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baie-Mahault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baillif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basse-Terre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouillante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capesterre-Belle-Eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capesterre-de-Marie-Galante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourbeyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Desirade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshaies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand-Bourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Gosier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goyave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morne-a-l'Eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Moule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit-Bourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit-Canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointe-a-Pitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointe-Noire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port-Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Francois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Anne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre-de-Bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre-de-Haut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trois-Rivieres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieux-Fort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieux-Habitants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Ajoupa-Bouillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Anses-d'Arlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basse-Pointe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Carbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-Pilote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Diamant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ducos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonds-Saint-Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort-de-France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Francois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand'Riviere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gros-Morne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Lamentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Lorrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macouba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Marigot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Morne-Rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Precheur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riviere-Pilote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riviere-Salee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Esprit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Luce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Trinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Trois-Ilets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Vauclin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Morne-Vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellefontaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iracoubo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kourou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macouria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matoury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Georges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remire-Montjoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Laurent-du-Maroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinnamary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montsinery-Tonnegrande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouanary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maripasoula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camopi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand-Santi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Elie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apatou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awala-Yalimapo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papaichton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97101QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Abymes (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97104QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baillif (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97105QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basse-Terre (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97107QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capesterre-Belle-Eau (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97113QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Gosier (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97115QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamentin (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97117QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Moule (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97120QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointe-a-Pitre (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97129QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Rose (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97132QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trois-Rivieres (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97209QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort-de-France (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97213QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Lamentin (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97222QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Robert (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97228QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainte-Marie (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97302QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayenne (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97304QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kourou (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97305QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macouria (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97306QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97307QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matoury (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97309QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remire-Montjoly (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horsZon97311QPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Laurent-du-Maroni (hors zone QPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boissard-Morne Flory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieux Bourg - Les Lauriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cour Charneau-Raizet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raizet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourg - Saint Robert - Cadet - Bois Raimbault- Jean Jaurès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourg - Saint Robert - Cadet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bologne-Rivière Des Pères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bologne-Rivière Des Pères - Calebassier - Pintade - Chevalier Saint Georges - Mallian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Bourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarlassone Petit Pérou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bananier - Haute Plaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champ Grille 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemin Neuf Carenage Darboussier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP971016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Boucan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartiers Ouest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartiers Sainte-Thérèse – Bon Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartier Volga Plage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartier Haut Dillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frange Ouest Du Centre-Ville Aggloméré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone De Cité Lacroix Trou Terre Pointe Lynch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP972007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tombolo City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonhomme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasteur Voltaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabassou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Gaulle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eau Lisette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galmot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village Chinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mont Baduel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre-Ville Marché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thémire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Anse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mairie-Bourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotonnière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogneau Est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Grand Larivot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sud Bourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahury-Dedrad Des Cannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résidence Arc En Ciel Alizées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot Tarzan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balate-Charbonnière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre Ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima-Route De Mana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN1-Les Sables Blancs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Jean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QP973032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Maurice</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +3420,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4446,7 +5473,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D61"/>
+  <autoFilter ref="A1:E61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4465,8 +5492,8 @@
   </sheetPr>
   <dimension ref="A1:AME234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D121" activeCellId="0" sqref="D121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11318,7 +12345,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C234"/>
+  <autoFilter ref="A1:D234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11736,4 +12763,2451 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E172"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>973</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1006">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -2654,12 +2654,6 @@
   </si>
   <si>
     <t xml:space="preserve">Papaichton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97801</t>
   </si>
   <si>
     <t xml:space="preserve">horsZon97101QPV</t>
@@ -5492,8 +5486,8 @@
   </sheetPr>
   <dimension ref="A1:AME234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12770,10 +12764,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14105,13 +14099,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>854</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>676</v>
+        <v>855</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>971</v>
@@ -14119,13 +14113,13 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>678</v>
+        <v>857</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>971</v>
@@ -14136,10 +14130,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>971</v>
@@ -14150,10 +14144,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>971</v>
@@ -14164,10 +14158,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>971</v>
@@ -14178,10 +14172,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>971</v>
@@ -14192,10 +14186,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>971</v>
@@ -14206,10 +14200,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>971</v>
@@ -14220,10 +14214,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>971</v>
@@ -14234,10 +14228,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>971</v>
@@ -14248,13 +14242,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14262,13 +14256,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14276,10 +14270,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>972</v>
@@ -14290,10 +14284,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>972</v>
@@ -14304,13 +14298,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14318,13 +14312,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14332,10 +14326,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>973</v>
@@ -14346,10 +14340,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>973</v>
@@ -14360,10 +14354,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>973</v>
@@ -14374,10 +14368,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>973</v>
@@ -14388,10 +14382,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>973</v>
@@ -14402,13 +14396,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14416,13 +14410,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14430,10 +14424,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>971</v>
@@ -14444,10 +14438,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>971</v>
@@ -14458,10 +14452,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>971</v>
@@ -14472,10 +14466,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>908</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>971</v>
@@ -14486,10 +14483,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>911</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>971</v>
@@ -14500,13 +14500,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>909</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>971</v>
@@ -14517,13 +14514,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>971</v>
@@ -14534,10 +14528,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>971</v>
@@ -14548,10 +14542,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>971</v>
@@ -14562,10 +14556,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>971</v>
@@ -14576,10 +14570,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>971</v>
@@ -14590,10 +14584,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>971</v>
@@ -14604,10 +14598,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>971</v>
@@ -14618,10 +14612,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>971</v>
@@ -14632,13 +14626,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14646,13 +14640,13 @@
         <v>3</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14660,10 +14654,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>972</v>
@@ -14674,10 +14668,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>972</v>
@@ -14688,10 +14682,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>972</v>
@@ -14702,10 +14696,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>972</v>
@@ -14716,10 +14710,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>972</v>
@@ -14730,13 +14724,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14744,13 +14738,13 @@
         <v>3</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14758,10 +14752,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>973</v>
@@ -14772,10 +14766,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>973</v>
@@ -14786,10 +14780,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>973</v>
@@ -14800,10 +14794,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>973</v>
@@ -14814,10 +14808,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>973</v>
@@ -14828,10 +14822,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>973</v>
@@ -14842,10 +14836,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>973</v>
@@ -14856,10 +14850,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>973</v>
@@ -14870,10 +14864,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>973</v>
@@ -14884,10 +14878,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>973</v>
@@ -14898,10 +14892,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>973</v>
@@ -14912,10 +14906,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>973</v>
@@ -14926,10 +14920,10 @@
         <v>3</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>973</v>
@@ -14940,10 +14934,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>973</v>
@@ -14954,10 +14948,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>973</v>
@@ -14968,10 +14962,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>973</v>
@@ -14982,10 +14976,10 @@
         <v>3</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>973</v>
@@ -14996,10 +14990,10 @@
         <v>3</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>973</v>
@@ -15010,10 +15004,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>973</v>
@@ -15024,10 +15018,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>973</v>
@@ -15038,10 +15032,10 @@
         <v>3</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>973</v>
@@ -15052,10 +15046,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>973</v>
@@ -15066,10 +15060,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>973</v>
@@ -15080,10 +15074,10 @@
         <v>3</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>973</v>
@@ -15094,10 +15088,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>973</v>
@@ -15108,10 +15102,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>973</v>
@@ -15122,10 +15116,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>973</v>
@@ -15136,10 +15130,10 @@
         <v>3</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>973</v>
@@ -15150,10 +15144,10 @@
         <v>3</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>973</v>
@@ -15164,43 +15158,17 @@
         <v>3</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>973</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E171" s="0" t="n">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E172" s="0" t="n">
-        <v>973</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,10 +16,10 @@
     <sheet name="zonePreType" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E61"/>
+  <autoFilter ref="A1:D61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5486,7 +5486,7 @@
   </sheetPr>
   <dimension ref="A1:AME234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -12339,7 +12339,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D234"/>
+  <autoFilter ref="B1:C234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12766,8 +12766,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12806,7 +12806,7 @@
         <v>670</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12820,7 +12820,7 @@
         <v>672</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12834,7 +12834,7 @@
         <v>674</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12848,7 +12848,7 @@
         <v>676</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12862,7 +12862,7 @@
         <v>678</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
+++ b/Data/Liste indicateurs statistiques/Agate - indicateurs statistiques_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="domaine" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,10 +16,10 @@
     <sheet name="zonePreType" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$A$1:$D$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">categorie!$A$1:$D$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">indicateur!$B$1:$C$234</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">indicateur!$B$1:$D$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1008">
   <si>
     <t xml:space="preserve">domaine</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t xml:space="preserve">Valeur diffusable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomIndicateur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateur</t>
   </si>
   <si>
     <t xml:space="preserve">idPredefine</t>
@@ -5467,7 +5473,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D61"/>
+  <autoFilter ref="A1:E61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12339,7 +12345,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C234"/>
+  <autoFilter ref="A1:D234"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12358,8 +12364,8 @@
   </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12680,7 +12686,14 @@
         <v>659</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12710,10 +12723,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12721,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12729,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,7 +12750,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12745,7 +12758,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -12766,7 +12779,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -12780,7 +12793,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>644</v>
@@ -12789,10 +12802,10 @@
         <v>646</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12800,10 +12813,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -12814,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -12828,10 +12841,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -12842,10 +12855,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -12856,10 +12869,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -12870,10 +12883,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>971</v>
@@ -12884,10 +12897,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>971</v>
@@ -12898,10 +12911,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>971</v>
@@ -12912,10 +12925,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>971</v>
@@ -12926,10 +12939,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>971</v>
@@ -12940,10 +12953,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>971</v>
@@ -12954,10 +12967,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>971</v>
@@ -12968,10 +12981,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>971</v>
@@ -12982,10 +12995,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>971</v>
@@ -12996,10 +13009,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>971</v>
@@ -13010,10 +13023,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>971</v>
@@ -13024,10 +13037,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>971</v>
@@ -13038,10 +13051,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>971</v>
@@ -13052,10 +13065,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>971</v>
@@ -13066,10 +13079,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>971</v>
@@ -13080,10 +13093,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>971</v>
@@ -13094,10 +13107,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>971</v>
@@ -13108,10 +13121,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>971</v>
@@ -13122,10 +13135,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>971</v>
@@ -13136,10 +13149,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>971</v>
@@ -13150,10 +13163,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>971</v>
@@ -13164,10 +13177,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>971</v>
@@ -13178,10 +13191,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>971</v>
@@ -13192,10 +13205,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>971</v>
@@ -13206,10 +13219,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>971</v>
@@ -13220,10 +13233,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>971</v>
@@ -13234,10 +13247,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>971</v>
@@ -13248,10 +13261,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>971</v>
@@ -13262,10 +13275,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>971</v>
@@ -13276,10 +13289,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>971</v>
@@ -13290,10 +13303,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>971</v>
@@ -13304,10 +13317,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>971</v>
@@ -13318,10 +13331,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>972</v>
@@ -13332,10 +13345,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>972</v>
@@ -13346,10 +13359,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>972</v>
@@ -13360,10 +13373,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>972</v>
@@ -13374,10 +13387,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>972</v>
@@ -13388,10 +13401,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>972</v>
@@ -13402,10 +13415,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>972</v>
@@ -13416,10 +13429,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>972</v>
@@ -13430,10 +13443,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>972</v>
@@ -13444,10 +13457,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>972</v>
@@ -13458,10 +13471,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>972</v>
@@ -13472,10 +13485,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>972</v>
@@ -13486,10 +13499,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>972</v>
@@ -13500,10 +13513,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>972</v>
@@ -13514,10 +13527,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>972</v>
@@ -13528,10 +13541,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>972</v>
@@ -13542,10 +13555,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>972</v>
@@ -13556,10 +13569,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>972</v>
@@ -13570,10 +13583,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>972</v>
@@ -13584,10 +13597,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>972</v>
@@ -13598,10 +13611,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>972</v>
@@ -13612,10 +13625,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>972</v>
@@ -13626,10 +13639,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>972</v>
@@ -13640,10 +13653,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>972</v>
@@ -13654,10 +13667,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>972</v>
@@ -13668,10 +13681,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>972</v>
@@ -13682,10 +13695,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>972</v>
@@ -13696,10 +13709,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>972</v>
@@ -13710,10 +13723,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>972</v>
@@ -13724,10 +13737,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>972</v>
@@ -13738,10 +13751,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>972</v>
@@ -13752,10 +13765,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>972</v>
@@ -13766,10 +13779,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>972</v>
@@ -13780,10 +13793,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>972</v>
@@ -13794,10 +13807,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>973</v>
@@ -13808,10 +13821,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>973</v>
@@ -13822,10 +13835,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>973</v>
@@ -13836,10 +13849,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>973</v>
@@ -13850,10 +13863,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>973</v>
@@ -13864,10 +13877,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>973</v>
@@ -13878,10 +13891,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>973</v>
@@ -13892,10 +13905,10 @@
         <v>2</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>973</v>
@@ -13906,10 +13919,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>973</v>
@@ -13920,10 +13933,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>973</v>
@@ -13934,10 +13947,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>973</v>
@@ -13948,10 +13961,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>973</v>
@@ -13962,10 +13975,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>973</v>
@@ -13976,10 +13989,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>973</v>
@@ -13990,10 +14003,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>973</v>
@@ -14004,10 +14017,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>973</v>
@@ -14018,10 +14031,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>973</v>
@@ -14032,10 +14045,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>973</v>
@@ -14046,10 +14059,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>973</v>
@@ -14060,10 +14073,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>973</v>
@@ -14074,10 +14087,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>973</v>
@@ -14088,10 +14101,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>973</v>
@@ -14102,10 +14115,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>971</v>
@@ -14116,10 +14129,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>971</v>
@@ -14130,10 +14143,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>971</v>
@@ -14144,10 +14157,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>971</v>
@@ -14158,10 +14171,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>971</v>
@@ -14172,10 +14185,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>971</v>
@@ -14186,10 +14199,10 @@
         <v>3</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>971</v>
@@ -14200,10 +14213,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>971</v>
@@ -14214,10 +14227,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>971</v>
@@ -14228,10 +14241,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>971</v>
@@ -14242,10 +14255,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>972</v>
@@ -14256,10 +14269,10 @@
         <v>3</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>972</v>
@@ -14270,10 +14283,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>972</v>
@@ -14284,10 +14297,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>972</v>
@@ -14298,10 +14311,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>973</v>
@@ -14312,10 +14325,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>973</v>
@@ -14326,10 +14339,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>973</v>
@@ -14340,10 +14353,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>973</v>
@@ -14354,10 +14367,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>973</v>
@@ -14368,10 +14381,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>973</v>
@@ -14382,10 +14395,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>973</v>
@@ -14396,10 +14409,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>971</v>
@@ -14410,10 +14423,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>971</v>
@@ -14424,10 +14437,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>971</v>
@@ -14438,10 +14451,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>971</v>
@@ -14452,10 +14465,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>971</v>
@@ -14466,13 +14479,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>971</v>
@@ -14483,13 +14496,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>971</v>
@@ -14500,10 +14513,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>971</v>
@@ -14514,10 +14527,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>971</v>
@@ -14528,10 +14541,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>971</v>
@@ -14542,10 +14555,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>971</v>
@@ -14556,10 +14569,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>971</v>
@@ -14570,10 +14583,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>971</v>
@@ -14584,10 +14597,10 @@
         <v>3</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>971</v>
@@ -14598,10 +14611,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>971</v>
@@ -14612,10 +14625,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>971</v>
@@ -14626,10 +14639,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>972</v>
@@ -14640,10 +14653,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>972</v>
@@ -14654,10 +14667,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>972</v>
@@ -14668,10 +14681,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>972</v>
@@ -14682,10 +14695,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>972</v>
@@ -14696,10 +14709,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>972</v>
@@ -14710,10 +14723,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>972</v>
@@ -14724,10 +14737,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>973</v>
@@ -14738,10 +14751,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>973</v>
@@ -14752,10 +14765,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>973</v>
@@ -14766,10 +14779,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>973</v>
@@ -14780,10 +14793,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>973</v>
@@ -14794,10 +14807,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>973</v>
@@ -14808,10 +14821,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>973</v>
@@ -14822,10 +14835,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>973</v>
@@ -14836,10 +14849,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>973</v>
@@ -14850,10 +14863,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>973</v>
@@ -14864,10 +14877,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>973</v>
@@ -14878,10 +14891,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>973</v>
@@ -14892,10 +14905,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>973</v>
@@ -14906,10 +14919,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>973</v>
@@ -14920,10 +14933,10 @@
         <v>3</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>973</v>
@@ -14934,10 +14947,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>973</v>
@@ -14948,10 +14961,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>973</v>
@@ -14962,10 +14975,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>973</v>
@@ -14976,10 +14989,10 @@
         <v>3</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>973</v>
@@ -14990,10 +15003,10 @@
         <v>3</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>973</v>
@@ -15004,10 +15017,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>973</v>
@@ -15018,10 +15031,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>973</v>
@@ -15032,10 +15045,10 @@
         <v>3</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>973</v>
@@ -15046,10 +15059,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>973</v>
@@ -15060,10 +15073,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>973</v>
@@ -15074,10 +15087,10 @@
         <v>3</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>973</v>
@@ -15088,10 +15101,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>973</v>
@@ -15102,10 +15115,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>973</v>
@@ -15116,10 +15129,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>973</v>
@@ -15130,10 +15143,10 @@
         <v>3</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>973</v>
@@ -15144,10 +15157,10 @@
         <v>3</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>973</v>
@@ -15158,10 +15171,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>973</v>
